--- a/data/financial_statements/soci/AEP.xlsx
+++ b/data/financial_statements/soci/AEP.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>5407000000</v>
+        <v>5526100000</v>
       </c>
       <c r="C2">
-        <v>4519000000</v>
+        <v>4639700000</v>
       </c>
       <c r="D2">
-        <v>4440000000</v>
+        <v>4592600000</v>
       </c>
       <c r="E2">
-        <v>4037000000</v>
+        <v>4061400000</v>
       </c>
       <c r="F2">
-        <v>4495000000</v>
+        <v>4623000000</v>
       </c>
       <c r="G2">
         <v>3826500000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.2029</v>
+        <v>0.1953</v>
       </c>
       <c r="C3">
-        <v>0.181</v>
+        <v>0.2125</v>
       </c>
       <c r="D3">
-        <v>0.0371</v>
+        <v>0.0728</v>
       </c>
       <c r="E3">
-        <v>0.1181</v>
+        <v>0.1249</v>
       </c>
       <c r="F3">
-        <v>0.1054</v>
+        <v>0.1369</v>
       </c>
       <c r="G3">
         <v>0.09520000000000001</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>4033000000</v>
+        <v>2111900000</v>
       </c>
       <c r="C4">
-        <v>3318000000</v>
+        <v>1564400000</v>
       </c>
       <c r="D4">
-        <v>3243000000</v>
+        <v>1500700000</v>
       </c>
       <c r="E4">
-        <v>3012000000</v>
+        <v>1340200000</v>
       </c>
       <c r="F4">
-        <v>3157000000</v>
+        <v>1441400000</v>
       </c>
       <c r="G4">
         <v>1124000000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1374000000</v>
+        <v>3414200000</v>
       </c>
       <c r="C5">
-        <v>1200000000</v>
+        <v>3075300000</v>
       </c>
       <c r="D5">
-        <v>1197000000</v>
+        <v>3091900000</v>
       </c>
       <c r="E5">
-        <v>1025000000</v>
+        <v>2721200000</v>
       </c>
       <c r="F5">
-        <v>1338000000</v>
+        <v>3181600000</v>
       </c>
       <c r="G5">
         <v>2702500000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1479900000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>930100100</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>360000000</v>
@@ -1396,8 +1507,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>360700000</v>
@@ -1518,23 +1629,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>3000000</v>
+        <v>-273100000</v>
       </c>
       <c r="C10">
-        <v>236000000</v>
+        <v>-264600000</v>
       </c>
       <c r="D10">
-        <v>235000000</v>
+        <v>-232900000</v>
       </c>
       <c r="E10">
-        <v>100000000</v>
+        <v>-230900000</v>
       </c>
       <c r="F10">
-        <v>175000000</v>
+        <v>-257700000</v>
       </c>
       <c r="G10">
         <v>-205300000</v>
@@ -1640,23 +1751,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>657000000</v>
       </c>
       <c r="C11">
-        <v>740000000</v>
+        <v>739800000</v>
       </c>
       <c r="D11">
-        <v>755000000</v>
+        <v>755200000</v>
       </c>
       <c r="E11">
-        <v>453000000</v>
+        <v>452800000</v>
       </c>
       <c r="F11">
-        <v>850000000</v>
+        <v>849700000</v>
       </c>
       <c r="G11">
         <v>604600000</v>
@@ -1762,23 +1873,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>-16000000</v>
+        <v>-16100000</v>
       </c>
       <c r="C12">
         <v>54000000</v>
       </c>
       <c r="D12">
-        <v>53000000</v>
+        <v>52800000</v>
       </c>
       <c r="E12">
         <v>-70000000</v>
       </c>
       <c r="F12">
-        <v>70000000</v>
+        <v>69800000</v>
       </c>
       <c r="G12">
         <v>61200000</v>
@@ -1884,8 +1995,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>673100000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>10200000</v>
@@ -2128,8 +2239,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D15">
         <v>-100</v>
@@ -2163,8 +2274,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>-400000</v>
@@ -2285,20 +2396,20 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>684000000</v>
+        <v>683700000</v>
       </c>
       <c r="C17">
-        <v>525000000</v>
+        <v>524500000</v>
       </c>
       <c r="D17">
-        <v>715000000</v>
+        <v>714700000</v>
       </c>
       <c r="E17">
-        <v>539000000</v>
+        <v>538900100</v>
       </c>
       <c r="F17">
         <v>796000000</v>
@@ -2407,8 +2518,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1.33</v>
@@ -2420,10 +2531,10 @@
         <v>1.41</v>
       </c>
       <c r="E18">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F18">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G18">
         <v>1.16</v>
@@ -2529,8 +2640,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1.33</v>
@@ -2545,7 +2656,7 @@
         <v>1.07</v>
       </c>
       <c r="F19">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G19">
         <v>1.16</v>
@@ -2651,23 +2762,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>514000000</v>
+        <v>513730000</v>
       </c>
       <c r="C20">
-        <v>514000000</v>
+        <v>513623000</v>
       </c>
       <c r="D20">
-        <v>506000000</v>
+        <v>506050000</v>
       </c>
       <c r="E20">
-        <v>504000000</v>
+        <v>500522000</v>
       </c>
       <c r="F20">
-        <v>501000000</v>
+        <v>501234000</v>
       </c>
       <c r="G20">
         <v>499917000</v>
@@ -2773,23 +2884,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>515000000</v>
+        <v>515316000</v>
       </c>
       <c r="C21">
-        <v>515000000</v>
+        <v>515162000</v>
       </c>
       <c r="D21">
-        <v>508000000</v>
+        <v>507659000</v>
       </c>
       <c r="E21">
-        <v>506000000</v>
+        <v>501784000</v>
       </c>
       <c r="F21">
-        <v>503000000</v>
+        <v>502607000</v>
       </c>
       <c r="G21">
         <v>500984000</v>
@@ -2895,23 +3006,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.2541</v>
+        <v>0.6178</v>
       </c>
       <c r="C22">
-        <v>0.2655</v>
+        <v>0.6627999999999999</v>
       </c>
       <c r="D22">
-        <v>0.2696</v>
+        <v>0.6732</v>
       </c>
       <c r="E22">
-        <v>0.2539</v>
+        <v>0.67</v>
       </c>
       <c r="F22">
-        <v>0.2977</v>
+        <v>0.6882</v>
       </c>
       <c r="G22">
         <v>0.7063</v>
@@ -3017,23 +3128,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.172</v>
+        <v>0.1683</v>
       </c>
       <c r="C23">
-        <v>0.2223</v>
+        <v>0.2165</v>
       </c>
       <c r="D23">
-        <v>0.2225</v>
+        <v>0.2152</v>
       </c>
       <c r="E23">
-        <v>0.1694</v>
+        <v>0.1683</v>
       </c>
       <c r="F23">
-        <v>0.2464</v>
+        <v>0.2395</v>
       </c>
       <c r="G23">
         <v>0.2117</v>
@@ -3139,23 +3250,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1215</v>
+        <v>0.1189</v>
       </c>
       <c r="C24">
-        <v>0.1638</v>
+        <v>0.1594</v>
       </c>
       <c r="D24">
-        <v>0.17</v>
+        <v>0.1644</v>
       </c>
       <c r="E24">
-        <v>0.1122</v>
+        <v>0.1115</v>
       </c>
       <c r="F24">
-        <v>0.1891</v>
+        <v>0.1838</v>
       </c>
       <c r="G24">
         <v>0.158</v>
@@ -3261,23 +3372,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.1265</v>
+        <v>0.1237</v>
       </c>
       <c r="C25">
-        <v>0.1162</v>
+        <v>0.113</v>
       </c>
       <c r="D25">
-        <v>0.161</v>
+        <v>0.1556</v>
       </c>
       <c r="E25">
-        <v>0.1335</v>
+        <v>0.1327</v>
       </c>
       <c r="F25">
-        <v>0.1771</v>
+        <v>0.1722</v>
       </c>
       <c r="G25">
         <v>0.1511</v>
@@ -3383,23 +3494,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1835000000</v>
+        <v>1751900000</v>
       </c>
       <c r="C26">
-        <v>1650000000</v>
+        <v>1784100000</v>
       </c>
       <c r="D26">
-        <v>1648000000</v>
+        <v>1803400000</v>
       </c>
       <c r="E26">
-        <v>1424000000</v>
+        <v>1626200000</v>
       </c>
       <c r="F26">
-        <v>1699000000</v>
+        <v>1807700000</v>
       </c>
       <c r="G26">
         <v>1461700000</v>
@@ -3505,8 +3616,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>930100100</v>
@@ -3627,8 +3738,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>683300000</v>
@@ -3749,8 +3860,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3778,23 +3889,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>683000000</v>
+        <v>683300000</v>
       </c>
       <c r="C30">
-        <v>521000000</v>
+        <v>520800000</v>
       </c>
       <c r="D30">
-        <v>718000000</v>
+        <v>718100000</v>
       </c>
       <c r="E30">
-        <v>539000000</v>
+        <v>538600200</v>
       </c>
       <c r="F30">
-        <v>797000000</v>
+        <v>796900000</v>
       </c>
       <c r="G30">
         <v>573800000</v>
@@ -3900,8 +4011,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.3301</v>
@@ -4022,8 +4133,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.326</v>
@@ -4144,8 +4255,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4173,8 +4284,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4202,8 +4313,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1.3301</v>
@@ -4324,8 +4435,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1.326</v>
@@ -4446,8 +4557,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>515316000</v>
@@ -4568,23 +4679,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.3394</v>
+        <v>0.317</v>
       </c>
       <c r="C38">
-        <v>0.3651</v>
+        <v>0.3845</v>
       </c>
       <c r="D38">
-        <v>0.3712</v>
+        <v>0.3927</v>
       </c>
       <c r="E38">
-        <v>0.3527</v>
+        <v>0.4004</v>
       </c>
       <c r="F38">
-        <v>0.378</v>
+        <v>0.391</v>
       </c>
       <c r="G38">
         <v>0.382</v>
@@ -4690,23 +4801,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>0.3224</v>
+        <v>0.3153</v>
       </c>
       <c r="C39">
-        <v>0.3029</v>
+        <v>0.295</v>
       </c>
       <c r="D39">
-        <v>0.3653</v>
+        <v>0.3532</v>
       </c>
       <c r="E39">
-        <v>0.2514</v>
+        <v>0.2134</v>
       </c>
       <c r="F39">
-        <v>0.4291</v>
+        <v>0.4173</v>
       </c>
       <c r="G39">
         <v>0.3034</v>
